--- a/DEBkiss results/Post defense work/Manuscript/Revisions/McMullen and Middaugh 1985 - Menidia peninsulae larvae sizes.xlsx
+++ b/DEBkiss results/Post defense work/Manuscript/Revisions/McMullen and Middaugh 1985 - Menidia peninsulae larvae sizes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\DEBkiss results\Post defense work\Manuscript\Revisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D688B5-610A-410C-A9FB-ADE2FEDBF485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B46E4B-966D-404E-81D6-B5B7DAACCDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{CAA80D1C-E76C-46F5-9F56-7D3C3A3246C8}"/>
   </bookViews>
@@ -1419,8 +1419,8 @@
   <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I302" sqref="I302"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H302" sqref="H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9612,15 +9612,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F48A38-21E1-4E42-9D47-8A9C97D32315}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>20</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>25</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
@@ -9673,6 +9673,26 @@
       </c>
       <c r="C5">
         <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>0.005*(5^1.3754)</f>
+        <v>4.5743916819918205E-2</v>
+      </c>
+      <c r="D11">
+        <f>0.005*(5.3^1.3754)</f>
+        <v>4.9560883001968627E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f>C11/0.45</f>
+        <v>0.10165314848870712</v>
+      </c>
+      <c r="D12">
+        <f>D11/0.45</f>
+        <v>0.11013529555993028</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
